--- a/doc/reverse_engineering/Yeelight GPIO measurements.xlsx
+++ b/doc/reverse_engineering/Yeelight GPIO measurements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Light measurements" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="174">
   <si>
     <t xml:space="preserve">33 (L6)</t>
   </si>
@@ -342,7 +342,37 @@
     <t xml:space="preserve">green overshoot</t>
   </si>
   <si>
+    <t xml:space="preserve">with green &gt; 152, the max pwm for the red parabole on the left, RGB level for red = 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the max pwm for the blue parabole (which seems independent of red and green), so RGB level for blue = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue max</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brightness 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roughly linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightness 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G=128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G = 192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G = 255</t>
   </si>
   <si>
     <t xml:space="preserve">green V</t>
@@ -444,6 +474,18 @@
   </si>
   <si>
     <t xml:space="preserve">G255 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay, conclusion: making this 100% compatible with the original device is going to be really hard work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But the RGB mode is already very functional when simply scaling RGB GPIO outputs linearly with the required brightness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only the RGB white light is a bit on the red side, so that needs fixing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is what I will do: use simple scaling and correct the white </t>
   </si>
   <si>
     <t xml:space="preserve">Gdc =-1/2850*G² + 95.2</t>
@@ -933,7 +975,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart827.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart862.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1180,11 +1222,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94228964"/>
-        <c:axId val="65763439"/>
+        <c:axId val="25094488"/>
+        <c:axId val="67844704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94228964"/>
+        <c:axId val="25094488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,12 +1254,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65763439"/>
+        <c:crossAx val="67844704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65763439"/>
+        <c:axId val="67844704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1296,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94228964"/>
+        <c:crossAx val="25094488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1302,7 +1344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart828.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart863.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1549,11 +1591,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18563855"/>
-        <c:axId val="4093746"/>
+        <c:axId val="76288505"/>
+        <c:axId val="5653069"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18563855"/>
+        <c:axId val="76288505"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,12 +1623,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4093746"/>
+        <c:crossAx val="5653069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4093746"/>
+        <c:axId val="5653069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1665,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18563855"/>
+        <c:crossAx val="76288505"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1671,7 +1713,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart829.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart864.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1918,11 +1960,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85874125"/>
-        <c:axId val="63266915"/>
+        <c:axId val="51120"/>
+        <c:axId val="46726866"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85874125"/>
+        <c:axId val="51120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,12 +1992,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63266915"/>
+        <c:crossAx val="46726866"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63266915"/>
+        <c:axId val="46726866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +2034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85874125"/>
+        <c:crossAx val="51120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2040,7 +2082,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart830.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart865.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2298,11 +2340,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43581748"/>
-        <c:axId val="30806872"/>
+        <c:axId val="84260393"/>
+        <c:axId val="96488218"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43581748"/>
+        <c:axId val="84260393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,12 +2372,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30806872"/>
+        <c:crossAx val="96488218"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30806872"/>
+        <c:axId val="96488218"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2414,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43581748"/>
+        <c:crossAx val="84260393"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2420,7 +2462,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart831.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart866.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2667,11 +2709,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54023134"/>
-        <c:axId val="10156322"/>
+        <c:axId val="49132970"/>
+        <c:axId val="7078122"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54023134"/>
+        <c:axId val="49132970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,12 +2741,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10156322"/>
+        <c:crossAx val="7078122"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10156322"/>
+        <c:axId val="7078122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54023134"/>
+        <c:crossAx val="49132970"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2789,7 +2831,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart832.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart867.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3284,11 +3326,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65551013"/>
-        <c:axId val="72093484"/>
+        <c:axId val="27297446"/>
+        <c:axId val="71345723"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65551013"/>
+        <c:axId val="27297446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,12 +3358,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72093484"/>
+        <c:crossAx val="71345723"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72093484"/>
+        <c:axId val="71345723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,7 +3400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65551013"/>
+        <c:crossAx val="27297446"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3406,7 +3448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart833.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart868.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3653,11 +3695,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62437420"/>
-        <c:axId val="82540675"/>
+        <c:axId val="96612833"/>
+        <c:axId val="10751750"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62437420"/>
+        <c:axId val="96612833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,12 +3727,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82540675"/>
+        <c:crossAx val="10751750"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82540675"/>
+        <c:axId val="10751750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3727,7 +3769,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62437420"/>
+        <c:crossAx val="96612833"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3775,7 +3817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart834.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart869.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3932,11 +3974,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66087480"/>
-        <c:axId val="60346470"/>
+        <c:axId val="91732643"/>
+        <c:axId val="18373306"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66087480"/>
+        <c:axId val="91732643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,12 +4006,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60346470"/>
+        <c:crossAx val="18373306"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60346470"/>
+        <c:axId val="18373306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4048,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66087480"/>
+        <c:crossAx val="91732643"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4054,7 +4096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart835.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart870.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4505,11 +4547,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74301635"/>
-        <c:axId val="31524726"/>
+        <c:axId val="74495185"/>
+        <c:axId val="25216478"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74301635"/>
+        <c:axId val="74495185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4537,12 +4579,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31524726"/>
+        <c:crossAx val="25216478"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31524726"/>
+        <c:axId val="25216478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +4621,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74301635"/>
+        <c:crossAx val="74495185"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4627,7 +4669,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart836.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart871.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5348,11 +5390,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3901433"/>
-        <c:axId val="9123864"/>
+        <c:axId val="12189748"/>
+        <c:axId val="78921497"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3901433"/>
+        <c:axId val="12189748"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,12 +5422,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9123864"/>
+        <c:crossAx val="78921497"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9123864"/>
+        <c:axId val="78921497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5422,7 +5464,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3901433"/>
+        <c:crossAx val="12189748"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5470,7 +5512,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart837.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart872.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6191,11 +6233,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52238585"/>
-        <c:axId val="12075538"/>
+        <c:axId val="87104707"/>
+        <c:axId val="3652664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52238585"/>
+        <c:axId val="87104707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6223,12 +6265,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12075538"/>
+        <c:crossAx val="3652664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12075538"/>
+        <c:axId val="3652664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6265,7 +6307,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52238585"/>
+        <c:crossAx val="87104707"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6313,7 +6355,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart838.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart873.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7034,11 +7076,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52263023"/>
-        <c:axId val="92550567"/>
+        <c:axId val="59095552"/>
+        <c:axId val="48246594"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52263023"/>
+        <c:axId val="59095552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,12 +7108,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92550567"/>
+        <c:crossAx val="48246594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92550567"/>
+        <c:axId val="48246594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,7 +7150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52263023"/>
+        <c:crossAx val="59095552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7156,7 +7198,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart839.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart874.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7877,11 +7919,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3512496"/>
-        <c:axId val="51978476"/>
+        <c:axId val="95603235"/>
+        <c:axId val="14138155"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3512496"/>
+        <c:axId val="95603235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7909,12 +7951,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51978476"/>
+        <c:crossAx val="14138155"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51978476"/>
+        <c:axId val="14138155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7951,7 +7993,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3512496"/>
+        <c:crossAx val="95603235"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7999,7 +8041,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart840.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart875.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8246,11 +8288,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89180930"/>
-        <c:axId val="32657713"/>
+        <c:axId val="16366927"/>
+        <c:axId val="59447902"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89180930"/>
+        <c:axId val="16366927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,12 +8320,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32657713"/>
+        <c:crossAx val="59447902"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32657713"/>
+        <c:axId val="59447902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8320,7 +8362,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89180930"/>
+        <c:crossAx val="16366927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8368,7 +8410,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart841.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart876.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9026,11 +9068,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31815413"/>
-        <c:axId val="58995367"/>
+        <c:axId val="86187685"/>
+        <c:axId val="83695351"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31815413"/>
+        <c:axId val="86187685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9058,12 +9100,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58995367"/>
+        <c:crossAx val="83695351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58995367"/>
+        <c:axId val="83695351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9100,7 +9142,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31815413"/>
+        <c:crossAx val="86187685"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9148,7 +9190,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart842.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart877.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9662,11 +9704,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44456112"/>
-        <c:axId val="68686657"/>
+        <c:axId val="51577678"/>
+        <c:axId val="83123014"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44456112"/>
+        <c:axId val="51577678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9694,12 +9736,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68686657"/>
+        <c:crossAx val="83123014"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68686657"/>
+        <c:axId val="83123014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9736,7 +9778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44456112"/>
+        <c:crossAx val="51577678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9784,7 +9826,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart843.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart878.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10352,11 +10394,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20146991"/>
-        <c:axId val="60047834"/>
+        <c:axId val="61571852"/>
+        <c:axId val="99991848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20146991"/>
+        <c:axId val="61571852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10384,12 +10426,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60047834"/>
+        <c:crossAx val="99991848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60047834"/>
+        <c:axId val="99991848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10426,7 +10468,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20146991"/>
+        <c:crossAx val="61571852"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10474,7 +10516,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart844.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart879.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10781,11 +10823,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35397754"/>
-        <c:axId val="46913146"/>
+        <c:axId val="40469582"/>
+        <c:axId val="98311577"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35397754"/>
+        <c:axId val="40469582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10813,12 +10855,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46913146"/>
+        <c:crossAx val="98311577"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46913146"/>
+        <c:axId val="98311577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10855,7 +10897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35397754"/>
+        <c:crossAx val="40469582"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10903,7 +10945,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart845.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart880.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11210,11 +11252,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50505202"/>
-        <c:axId val="42618831"/>
+        <c:axId val="38395229"/>
+        <c:axId val="82787517"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50505202"/>
+        <c:axId val="38395229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11242,12 +11284,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42618831"/>
+        <c:crossAx val="82787517"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42618831"/>
+        <c:axId val="82787517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11284,7 +11326,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50505202"/>
+        <c:crossAx val="38395229"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11332,7 +11374,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart846.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart881.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11639,11 +11681,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98317242"/>
-        <c:axId val="34483617"/>
+        <c:axId val="85026846"/>
+        <c:axId val="38388642"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98317242"/>
+        <c:axId val="85026846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11671,12 +11713,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34483617"/>
+        <c:crossAx val="38388642"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34483617"/>
+        <c:axId val="38388642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11713,7 +11755,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98317242"/>
+        <c:crossAx val="85026846"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11761,7 +11803,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart847.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart882.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12068,11 +12110,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72353878"/>
-        <c:axId val="50352607"/>
+        <c:axId val="79769564"/>
+        <c:axId val="66924746"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72353878"/>
+        <c:axId val="79769564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12100,12 +12142,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50352607"/>
+        <c:crossAx val="66924746"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50352607"/>
+        <c:axId val="66924746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12142,7 +12184,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72353878"/>
+        <c:crossAx val="79769564"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12190,7 +12232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart848.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart883.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13115,11 +13157,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50746736"/>
-        <c:axId val="15546608"/>
+        <c:axId val="53768764"/>
+        <c:axId val="45440019"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50746736"/>
+        <c:axId val="53768764"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13147,12 +13189,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15546608"/>
+        <c:crossAx val="45440019"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15546608"/>
+        <c:axId val="45440019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13189,7 +13231,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50746736"/>
+        <c:crossAx val="53768764"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13237,7 +13279,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart849.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart884.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13955,11 +13997,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62408082"/>
-        <c:axId val="73783375"/>
+        <c:axId val="26606913"/>
+        <c:axId val="75607265"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62408082"/>
+        <c:axId val="26606913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13987,12 +14029,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73783375"/>
+        <c:crossAx val="75607265"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73783375"/>
+        <c:axId val="75607265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14029,7 +14071,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62408082"/>
+        <c:crossAx val="26606913"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14077,7 +14119,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart850.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart885.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14323,11 +14365,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27427885"/>
-        <c:axId val="63987103"/>
+        <c:axId val="46210435"/>
+        <c:axId val="84561965"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27427885"/>
+        <c:axId val="46210435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14355,12 +14397,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63987103"/>
+        <c:crossAx val="84561965"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63987103"/>
+        <c:axId val="84561965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14397,7 +14439,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27427885"/>
+        <c:crossAx val="46210435"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14445,7 +14487,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart851.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart886.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15559,11 +15601,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36731995"/>
-        <c:axId val="63352254"/>
+        <c:axId val="41415990"/>
+        <c:axId val="596141"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36731995"/>
+        <c:axId val="41415990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15591,12 +15633,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63352254"/>
+        <c:crossAx val="596141"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63352254"/>
+        <c:axId val="596141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15633,7 +15675,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36731995"/>
+        <c:crossAx val="41415990"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15681,7 +15723,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart852.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart887.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -16639,11 +16681,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8161844"/>
-        <c:axId val="66122647"/>
+        <c:axId val="91644450"/>
+        <c:axId val="91184591"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8161844"/>
+        <c:axId val="91644450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16671,12 +16713,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66122647"/>
+        <c:crossAx val="91184591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66122647"/>
+        <c:axId val="91184591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16713,7 +16755,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8161844"/>
+        <c:crossAx val="91644450"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16761,7 +16803,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart853.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart888.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -17689,11 +17731,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78590377"/>
-        <c:axId val="69388450"/>
+        <c:axId val="47350626"/>
+        <c:axId val="71599805"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78590377"/>
+        <c:axId val="47350626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17721,12 +17763,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69388450"/>
+        <c:crossAx val="71599805"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69388450"/>
+        <c:axId val="71599805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17763,7 +17805,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78590377"/>
+        <c:crossAx val="47350626"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17811,7 +17853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart854.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart889.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -18769,11 +18811,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31438273"/>
-        <c:axId val="36299711"/>
+        <c:axId val="3997639"/>
+        <c:axId val="92090141"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31438273"/>
+        <c:axId val="3997639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18801,12 +18843,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36299711"/>
+        <c:crossAx val="92090141"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36299711"/>
+        <c:axId val="92090141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18843,7 +18885,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31438273"/>
+        <c:crossAx val="3997639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18891,7 +18933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart855.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart890.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -19819,11 +19861,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75557044"/>
-        <c:axId val="29246392"/>
+        <c:axId val="11997905"/>
+        <c:axId val="82191140"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75557044"/>
+        <c:axId val="11997905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19851,12 +19893,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29246392"/>
+        <c:crossAx val="82191140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29246392"/>
+        <c:axId val="82191140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19893,7 +19935,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75557044"/>
+        <c:crossAx val="11997905"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19941,7 +19983,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart856.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart891.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -20554,11 +20596,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48280637"/>
-        <c:axId val="85817020"/>
+        <c:axId val="61999674"/>
+        <c:axId val="23835177"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48280637"/>
+        <c:axId val="61999674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20586,12 +20628,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85817020"/>
+        <c:crossAx val="23835177"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85817020"/>
+        <c:axId val="23835177"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20628,7 +20670,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48280637"/>
+        <c:crossAx val="61999674"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20676,7 +20718,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart857.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart892.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -20968,11 +21010,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61125306"/>
-        <c:axId val="52702700"/>
+        <c:axId val="2649265"/>
+        <c:axId val="62236265"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61125306"/>
+        <c:axId val="2649265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21000,12 +21042,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52702700"/>
+        <c:crossAx val="62236265"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52702700"/>
+        <c:axId val="62236265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21042,7 +21084,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61125306"/>
+        <c:crossAx val="2649265"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21090,7 +21132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart858.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart893.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21676,11 +21718,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72225918"/>
-        <c:axId val="41515205"/>
+        <c:axId val="33557126"/>
+        <c:axId val="47817624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72225918"/>
+        <c:axId val="33557126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21708,12 +21750,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41515205"/>
+        <c:crossAx val="47817624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41515205"/>
+        <c:axId val="47817624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21750,7 +21792,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72225918"/>
+        <c:crossAx val="33557126"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21798,7 +21840,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart859.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart894.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -22139,20 +22181,80 @@
                 <c:pt idx="0">
                   <c:v>0.87299999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8420669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8076968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7733267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7389566</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.7045865</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6702164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6358463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6014762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5671061</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>0.532736</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4983659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4639958</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4296257</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3952556</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>0.3608855</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3265154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2921453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2577752</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2234051</c:v>
+                </c:pt>
                 <c:pt idx="20">
                   <c:v>0.189035</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1546649</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1202948</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>0.0859247000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0515546000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0171845</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-5.50000000032469E-007</c:v>
@@ -22162,11 +22264,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12272456"/>
-        <c:axId val="18310572"/>
+        <c:axId val="49723631"/>
+        <c:axId val="79298493"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12272456"/>
+        <c:axId val="49723631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22194,12 +22296,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18310572"/>
+        <c:crossAx val="79298493"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18310572"/>
+        <c:axId val="79298493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22236,7 +22338,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12272456"/>
+        <c:crossAx val="49723631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22284,7 +22386,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart860.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart895.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -22348,6 +22450,96 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$C$486:$C$512</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Detailed R'!$E$486:$E$512</c:f>
@@ -22437,6 +22629,96 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$C$486:$C$512</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Detailed R'!$F$486:$F$512</c:f>
@@ -22526,6 +22808,96 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$C$486:$C$512</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Detailed R'!$G$486:$G$512</c:f>
@@ -22561,11 +22933,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22792737"/>
-        <c:axId val="65096466"/>
+        <c:axId val="85746208"/>
+        <c:axId val="77795873"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22792737"/>
+        <c:axId val="85746208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22593,12 +22965,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65096466"/>
+        <c:crossAx val="77795873"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65096466"/>
+        <c:axId val="77795873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22635,7 +23007,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22792737"/>
+        <c:crossAx val="85746208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22683,7 +23055,2554 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart861.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart896.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$E$514</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>red DC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$C$515:$C$541</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$E$515:$E$541</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$F$514</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>green DC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$C$515:$C$541</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$F$515:$F$541</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$G$514</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blue DC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$C$515:$C$541</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$G$515:$G$541</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.858</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.962</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="34250044"/>
+        <c:axId val="77088746"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="34250044"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77088746"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77088746"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34250044"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart897.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$P$455</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>red max </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$O$456:$O$467</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$P$456:$P$467</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="4668303"/>
+        <c:axId val="44078620"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4668303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44078620"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44078620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4668303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart898.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$P$479</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blue max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$O$480:$O$488</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$P$480:$P$488</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="78006230"/>
+        <c:axId val="25798185"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78006230"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25798185"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="25798185"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78006230"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart899.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$E$543</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>red DC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$D$544:$D$570</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$E$544:$E$570</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="10">
+                  <c:v>0.543</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.544</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.545</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.546</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.546</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.546</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.547</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$F$543</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>green DC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$D$544:$D$570</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$F$544:$F$570</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$G$543</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blue DC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$D$544:$D$570</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$G$544:$G$570</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="10">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.865</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.765</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.721</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="7969563"/>
+        <c:axId val="10061525"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="7969563"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10061525"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="10061525"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7969563"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart900.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$E$572</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$D$573:$D$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$E$573:$E$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$F$572</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G=128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$D$573:$D$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$F$573:$F$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$G$572</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G = 192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$D$573:$D$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$G$573:$G$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed R'!$H$572</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G = 255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$D$573:$D$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed R'!$H$573:$H$599</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="28177380"/>
+        <c:axId val="91190423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28177380"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91190423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91190423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28177380"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart901.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -22876,11 +25795,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65521478"/>
-        <c:axId val="48203424"/>
+        <c:axId val="66352863"/>
+        <c:axId val="62198778"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65521478"/>
+        <c:axId val="66352863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22908,12 +25827,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48203424"/>
+        <c:crossAx val="62198778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48203424"/>
+        <c:axId val="62198778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22950,7 +25869,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65521478"/>
+        <c:crossAx val="66352863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24020,6 +26939,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299160</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1000080</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6613920" y="83440080"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160560</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14739480" y="73834560"/>
+        <a:ext cx="5760000" cy="3240360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226440</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>234720</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14805360" y="77811840"/>
+        <a:ext cx="5760000" cy="3240360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>537480</xdr:colOff>
+      <xdr:row>542</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86040</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="37" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6852240" y="88143480"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400680</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>899640</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="38" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7665480" y="92854080"/>
+        <a:ext cx="5760000" cy="3240360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24040,7 +27109,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="34" name=""/>
+        <xdr:cNvPr id="39" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -26669,10 +29738,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ512"/>
+  <dimension ref="A1:AJ599"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A469" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A487" activeCellId="0" sqref="A487"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A285" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E573" activeCellId="0" sqref="E573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33384,7 +36453,10 @@
         <v>64</v>
       </c>
       <c r="X202" s="12"/>
-      <c r="Y202" s="13"/>
+      <c r="Y202" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q202) / 100</f>
+        <v>0.8420669</v>
+      </c>
       <c r="AC202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33423,7 +36495,10 @@
         <v>64</v>
       </c>
       <c r="X203" s="12"/>
-      <c r="Y203" s="13"/>
+      <c r="Y203" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q203) / 100</f>
+        <v>0.8076968</v>
+      </c>
       <c r="AC203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33462,7 +36537,10 @@
         <v>64</v>
       </c>
       <c r="X204" s="12"/>
-      <c r="Y204" s="13"/>
+      <c r="Y204" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q204) / 100</f>
+        <v>0.7733267</v>
+      </c>
       <c r="AC204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33501,7 +36579,10 @@
         <v>64</v>
       </c>
       <c r="X205" s="12"/>
-      <c r="Y205" s="13"/>
+      <c r="Y205" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q205) / 100</f>
+        <v>0.7389566</v>
+      </c>
       <c r="AC205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33593,7 +36674,10 @@
         <v>64</v>
       </c>
       <c r="X207" s="12"/>
-      <c r="Y207" s="13"/>
+      <c r="Y207" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q207) / 100</f>
+        <v>0.6702164</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="n">
@@ -33631,7 +36715,10 @@
         <v>64</v>
       </c>
       <c r="X208" s="12"/>
-      <c r="Y208" s="13"/>
+      <c r="Y208" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q208) / 100</f>
+        <v>0.6358463</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="n">
@@ -33669,7 +36756,10 @@
         <v>64</v>
       </c>
       <c r="X209" s="12"/>
-      <c r="Y209" s="13"/>
+      <c r="Y209" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q209) / 100</f>
+        <v>0.6014762</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="n">
@@ -33707,7 +36797,10 @@
         <v>64</v>
       </c>
       <c r="X210" s="12"/>
-      <c r="Y210" s="13"/>
+      <c r="Y210" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q210) / 100</f>
+        <v>0.5671061</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="n">
@@ -33798,7 +36891,10 @@
         <v>64</v>
       </c>
       <c r="X212" s="12"/>
-      <c r="Y212" s="13"/>
+      <c r="Y212" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q212) / 100</f>
+        <v>0.4983659</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="n">
@@ -33836,7 +36932,10 @@
         <v>64</v>
       </c>
       <c r="X213" s="12"/>
-      <c r="Y213" s="13"/>
+      <c r="Y213" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q213) / 100</f>
+        <v>0.4639958</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="n">
@@ -33874,7 +36973,10 @@
         <v>64</v>
       </c>
       <c r="X214" s="12"/>
-      <c r="Y214" s="13"/>
+      <c r="Y214" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q214) / 100</f>
+        <v>0.4296257</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="n">
@@ -33912,7 +37014,10 @@
         <v>64</v>
       </c>
       <c r="X215" s="12"/>
-      <c r="Y215" s="13"/>
+      <c r="Y215" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q215) / 100</f>
+        <v>0.3952556</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="n">
@@ -34003,7 +37108,10 @@
         <v>64</v>
       </c>
       <c r="X217" s="12"/>
-      <c r="Y217" s="13"/>
+      <c r="Y217" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q217) / 100</f>
+        <v>0.3265154</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="n">
@@ -34041,7 +37149,10 @@
         <v>64</v>
       </c>
       <c r="X218" s="12"/>
-      <c r="Y218" s="13"/>
+      <c r="Y218" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q218) / 100</f>
+        <v>0.2921453</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="n">
@@ -34080,7 +37191,10 @@
         <v>64</v>
       </c>
       <c r="X219" s="12"/>
-      <c r="Y219" s="13"/>
+      <c r="Y219" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q219) / 100</f>
+        <v>0.2577752</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="n">
@@ -34119,7 +37233,10 @@
         <v>64</v>
       </c>
       <c r="X220" s="12"/>
-      <c r="Y220" s="13"/>
+      <c r="Y220" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q220) / 100</f>
+        <v>0.2234051</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="n">
@@ -34212,7 +37329,10 @@
         <v>64</v>
       </c>
       <c r="X222" s="12"/>
-      <c r="Y222" s="13"/>
+      <c r="Y222" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q222) / 100</f>
+        <v>0.1546649</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="n">
@@ -34251,7 +37371,10 @@
         <v>64</v>
       </c>
       <c r="X223" s="12"/>
-      <c r="Y223" s="13"/>
+      <c r="Y223" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q223) / 100</f>
+        <v>0.1202948</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="n">
@@ -34344,7 +37467,10 @@
         <v>64</v>
       </c>
       <c r="X225" s="12"/>
-      <c r="Y225" s="13"/>
+      <c r="Y225" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q225) / 100</f>
+        <v>0.0515546000000001</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="n">
@@ -34383,7 +37509,10 @@
         <v>64</v>
       </c>
       <c r="X226" s="12"/>
-      <c r="Y226" s="13"/>
+      <c r="Y226" s="13" t="n">
+        <f aca="false">(87.6437 - 0.343701 * Q226) / 100</f>
+        <v>0.0171845</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="n">
@@ -39719,6 +42848,11 @@
       <c r="C446" s="0" t="n">
         <f aca="false">C443-150</f>
         <v>74</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O454" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39730,6 +42864,12 @@
       <c r="F455" s="11"/>
       <c r="G455" s="11"/>
       <c r="H455" s="2"/>
+      <c r="O455" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P455" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
@@ -39754,6 +42894,13 @@
         <v>64</v>
       </c>
       <c r="H456" s="13"/>
+      <c r="O456" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P456" s="13" t="n">
+        <f aca="false">E483</f>
+        <v>0.927</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="1" t="n">
@@ -39775,6 +42922,13 @@
         <v>0.873</v>
       </c>
       <c r="H457" s="13"/>
+      <c r="O457" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P457" s="13" t="n">
+        <f aca="false">E541</f>
+        <v>0.834</v>
+      </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="0" t="n">
@@ -39796,6 +42950,13 @@
         <v>0.873</v>
       </c>
       <c r="H458" s="13"/>
+      <c r="O458" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="P458" s="13" t="n">
+        <f aca="false">E512</f>
+        <v>0.737</v>
+      </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="0" t="n">
@@ -39817,6 +42978,12 @@
         <v>0.881</v>
       </c>
       <c r="H459" s="13"/>
+      <c r="O459" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="P459" s="12" t="n">
+        <v>0.543</v>
+      </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="0" t="n">
@@ -40137,9 +43304,6 @@
       <c r="H477" s="13"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="B478" s="0" t="n">
         <v>255</v>
       </c>
@@ -40153,6 +43317,9 @@
       <c r="F478" s="13"/>
       <c r="G478" s="13"/>
       <c r="H478" s="13"/>
+      <c r="O478" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="0" t="n">
@@ -40168,6 +43335,12 @@
       <c r="F479" s="13"/>
       <c r="G479" s="13"/>
       <c r="H479" s="13"/>
+      <c r="O479" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P479" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="0" t="n">
@@ -40183,6 +43356,13 @@
       <c r="F480" s="13"/>
       <c r="G480" s="13"/>
       <c r="H480" s="13"/>
+      <c r="O480" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P480" s="13" t="n">
+        <f aca="false">G483</f>
+        <v>0.968</v>
+      </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="0" t="n">
@@ -40198,6 +43378,13 @@
       <c r="F481" s="13"/>
       <c r="G481" s="13"/>
       <c r="H481" s="13"/>
+      <c r="O481" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P481" s="13" t="n">
+        <f aca="false">G541</f>
+        <v>0.966</v>
+      </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="0" t="n">
@@ -40213,6 +43400,13 @@
       <c r="F482" s="13"/>
       <c r="G482" s="13"/>
       <c r="H482" s="13"/>
+      <c r="O482" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="P482" s="13" t="n">
+        <f aca="false">G512</f>
+        <v>0.963</v>
+      </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="0" t="n">
@@ -40233,10 +43427,24 @@
       <c r="G483" s="13" t="n">
         <v>0.968</v>
       </c>
+      <c r="O483" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="P483" s="12" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O484" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="P484" s="12" t="n">
+        <v>0.957</v>
+      </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B485" s="11" t="s">
         <v>53</v>
@@ -40275,6 +43483,9 @@
       </c>
       <c r="G486" s="13" t="n">
         <v>0.441</v>
+      </c>
+      <c r="O486" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40588,9 +43799,6 @@
       <c r="G506" s="13"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="B507" s="0" t="n">
         <v>255</v>
       </c>
@@ -40685,6 +43893,1248 @@
       <c r="G512" s="13" t="n">
         <v>0.963</v>
       </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B514" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C514" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D514" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E514" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F514" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G514" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C515" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D515" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E515" s="13" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F515" s="13" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="G515" s="13" t="n">
+        <v>0.661</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B516" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C516" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D516" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E516" s="13"/>
+      <c r="F516" s="13"/>
+      <c r="G516" s="13"/>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B517" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C517" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D517" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="E517" s="13"/>
+      <c r="F517" s="13"/>
+      <c r="G517" s="13"/>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B518" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C518" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D518" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="E518" s="13"/>
+      <c r="F518" s="13"/>
+      <c r="G518" s="13"/>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B519" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C519" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D519" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="E519" s="13"/>
+      <c r="F519" s="13"/>
+      <c r="G519" s="13"/>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C520" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D520" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="E520" s="13" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F520" s="13" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G520" s="13" t="n">
+        <v>0.759</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B521" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C521" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D521" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E521" s="13"/>
+      <c r="F521" s="13"/>
+      <c r="G521" s="13"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C522" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D522" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="E522" s="13"/>
+      <c r="F522" s="13"/>
+      <c r="G522" s="13"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B523" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C523" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D523" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="E523" s="13"/>
+      <c r="F523" s="13"/>
+      <c r="G523" s="13"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B524" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C524" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D524" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="E524" s="13"/>
+      <c r="F524" s="13"/>
+      <c r="G524" s="13"/>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B525" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C525" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D525" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="E525" s="13" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F525" s="13" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G525" s="13" t="n">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B526" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C526" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D526" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E526" s="13"/>
+      <c r="F526" s="13"/>
+      <c r="G526" s="13"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B527" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C527" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D527" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="E527" s="13"/>
+      <c r="F527" s="13"/>
+      <c r="G527" s="13"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B528" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C528" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D528" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E528" s="13"/>
+      <c r="F528" s="13"/>
+      <c r="G528" s="13"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B529" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C529" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D529" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E529" s="13"/>
+      <c r="F529" s="13"/>
+      <c r="G529" s="13"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B530" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C530" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D530" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E530" s="13" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F530" s="13" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G530" s="13" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B531" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C531" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="D531" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E531" s="13"/>
+      <c r="F531" s="13"/>
+      <c r="G531" s="13"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B532" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C532" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="D532" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E532" s="13" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="F532" s="13" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G532" s="13" t="n">
+        <v>0.941</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C533" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D533" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E533" s="13"/>
+      <c r="F533" s="13"/>
+      <c r="G533" s="13"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B534" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C534" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="D534" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E534" s="13"/>
+      <c r="F534" s="13"/>
+      <c r="G534" s="13"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B535" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C535" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D535" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E535" s="13"/>
+      <c r="F535" s="13"/>
+      <c r="G535" s="13"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B536" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C536" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="D536" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E536" s="13"/>
+      <c r="F536" s="13"/>
+      <c r="G536" s="13"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B537" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C537" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="D537" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E537" s="13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F537" s="13" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G537" s="13" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C538" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="D538" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E538" s="13"/>
+      <c r="F538" s="13"/>
+      <c r="G538" s="13"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C539" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="D539" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E539" s="13"/>
+      <c r="F539" s="13"/>
+      <c r="G539" s="13"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B540" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C540" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="D540" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E540" s="13"/>
+      <c r="F540" s="13"/>
+      <c r="G540" s="13"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B541" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C541" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D541" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E541" s="13" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="F541" s="13" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="G541" s="13" t="n">
+        <v>0.966</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B543" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C543" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D543" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E543" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F543" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G543" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B544" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C544" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E544" s="13"/>
+      <c r="F544" s="13"/>
+      <c r="G544" s="13"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B545" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C545" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D545" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E545" s="13"/>
+      <c r="F545" s="13"/>
+      <c r="G545" s="13"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B546" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C546" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D546" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E546" s="13"/>
+      <c r="F546" s="13"/>
+      <c r="G546" s="13"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B547" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C547" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D547" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E547" s="13"/>
+      <c r="F547" s="13"/>
+      <c r="G547" s="13"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B548" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C548" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E548" s="13"/>
+      <c r="F548" s="13"/>
+      <c r="G548" s="13"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B549" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C549" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D549" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E549" s="13"/>
+      <c r="F549" s="13"/>
+      <c r="G549" s="13"/>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B550" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C550" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D550" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E550" s="13"/>
+      <c r="F550" s="13"/>
+      <c r="G550" s="13"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B551" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C551" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D551" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E551" s="13"/>
+      <c r="F551" s="13"/>
+      <c r="G551" s="13"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B552" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C552" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D552" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E552" s="13"/>
+      <c r="F552" s="13"/>
+      <c r="G552" s="13"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B553" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C553" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E553" s="13"/>
+      <c r="F553" s="13"/>
+      <c r="G553" s="13"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B554" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C554" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D554" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E554" s="13" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="F554" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G554" s="13" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B555" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C555" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E555" s="13"/>
+      <c r="F555" s="13"/>
+      <c r="G555" s="13"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B556" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C556" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D556" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E556" s="13"/>
+      <c r="F556" s="13"/>
+      <c r="G556" s="13"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B557" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C557" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D557" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E557" s="13"/>
+      <c r="F557" s="13"/>
+      <c r="G557" s="13"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B558" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C558" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D558" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="E558" s="13"/>
+      <c r="F558" s="13"/>
+      <c r="G558" s="13"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B559" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C559" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D559" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E559" s="13" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="F559" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G559" s="13" t="n">
+        <v>0.865</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B560" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C560" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D560" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="E560" s="13" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F560" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G560" s="13" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B561" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C561" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D561" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="E561" s="13"/>
+      <c r="F561" s="13"/>
+      <c r="G561" s="13"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B562" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C562" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="E562" s="13"/>
+      <c r="F562" s="13"/>
+      <c r="G562" s="13"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B563" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C563" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D563" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="E563" s="13" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="F563" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G563" s="13" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C564" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D564" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E564" s="13" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="F564" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G564" s="13" t="n">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C565" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D565" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="E565" s="13" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="F565" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G565" s="13" t="n">
+        <v>0.765</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C566" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D566" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="E566" s="13"/>
+      <c r="F566" s="13"/>
+      <c r="G566" s="13"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B567" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C567" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="E567" s="13" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="F567" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G567" s="13" t="n">
+        <v>0.721</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B568" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C568" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D568" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="E568" s="13"/>
+      <c r="F568" s="13"/>
+      <c r="G568" s="13"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B569" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C569" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D569" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E569" s="13"/>
+      <c r="F569" s="13"/>
+      <c r="G569" s="13"/>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B570" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="C570" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D570" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E570" s="13" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="F570" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G570" s="13" t="n">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B572" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C572" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D572" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E572" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F572" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G572" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H572" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B573" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="D573" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E573" s="13"/>
+      <c r="F573" s="13"/>
+      <c r="G573" s="13"/>
+      <c r="H573" s="12"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B574" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D574" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E574" s="13"/>
+      <c r="F574" s="13"/>
+      <c r="G574" s="13"/>
+      <c r="H574" s="12"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B575" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D575" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E575" s="13"/>
+      <c r="F575" s="13"/>
+      <c r="G575" s="13"/>
+      <c r="H575" s="12"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B576" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D576" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E576" s="13"/>
+      <c r="F576" s="13"/>
+      <c r="G576" s="13"/>
+      <c r="H576" s="12"/>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B577" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D577" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E577" s="13"/>
+      <c r="F577" s="13"/>
+      <c r="G577" s="13"/>
+      <c r="H577" s="12"/>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B578" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D578" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E578" s="13"/>
+      <c r="F578" s="13"/>
+      <c r="G578" s="13"/>
+      <c r="H578" s="12"/>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B579" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D579" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E579" s="13"/>
+      <c r="F579" s="13"/>
+      <c r="G579" s="13"/>
+      <c r="H579" s="12"/>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B580" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D580" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E580" s="13"/>
+      <c r="F580" s="13"/>
+      <c r="G580" s="13"/>
+      <c r="H580" s="12"/>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B581" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D581" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E581" s="13"/>
+      <c r="F581" s="13"/>
+      <c r="G581" s="13"/>
+      <c r="H581" s="12"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B582" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D582" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E582" s="13"/>
+      <c r="F582" s="13"/>
+      <c r="G582" s="13"/>
+      <c r="H582" s="12"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B583" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D583" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E583" s="13"/>
+      <c r="F583" s="13"/>
+      <c r="G583" s="13"/>
+      <c r="H583" s="12"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D584" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E584" s="13"/>
+      <c r="F584" s="13"/>
+      <c r="G584" s="13"/>
+      <c r="H584" s="12"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D585" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E585" s="13"/>
+      <c r="F585" s="13"/>
+      <c r="G585" s="13"/>
+      <c r="H585" s="12"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B586" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D586" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E586" s="13"/>
+      <c r="F586" s="13"/>
+      <c r="G586" s="13"/>
+      <c r="H586" s="12"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D587" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E587" s="13"/>
+      <c r="F587" s="13"/>
+      <c r="G587" s="13"/>
+      <c r="H587" s="12"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B588" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D588" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E588" s="13"/>
+      <c r="F588" s="13"/>
+      <c r="G588" s="13"/>
+      <c r="H588" s="12"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B589" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D589" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E589" s="13"/>
+      <c r="F589" s="13"/>
+      <c r="G589" s="13"/>
+      <c r="H589" s="12"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B590" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D590" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E590" s="13"/>
+      <c r="F590" s="13"/>
+      <c r="G590" s="13"/>
+      <c r="H590" s="12"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D591" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E591" s="13"/>
+      <c r="F591" s="13"/>
+      <c r="G591" s="13"/>
+      <c r="H591" s="12"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B592" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D592" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E592" s="13"/>
+      <c r="F592" s="13"/>
+      <c r="G592" s="13"/>
+      <c r="H592" s="12"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B593" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D593" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E593" s="13"/>
+      <c r="F593" s="13"/>
+      <c r="G593" s="13"/>
+      <c r="H593" s="12"/>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B594" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D594" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E594" s="13"/>
+      <c r="F594" s="13"/>
+      <c r="G594" s="13"/>
+      <c r="H594" s="12"/>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B595" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D595" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E595" s="13"/>
+      <c r="F595" s="13"/>
+      <c r="G595" s="13"/>
+      <c r="H595" s="12"/>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B596" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D596" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E596" s="13"/>
+      <c r="F596" s="13"/>
+      <c r="G596" s="13"/>
+      <c r="H596" s="12"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B597" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D597" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E597" s="13"/>
+      <c r="F597" s="13"/>
+      <c r="G597" s="13"/>
+      <c r="H597" s="12"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B598" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D598" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E598" s="13"/>
+      <c r="F598" s="13"/>
+      <c r="G598" s="13"/>
+      <c r="H598" s="12"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B599" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="D599" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="E599" s="13"/>
+      <c r="F599" s="13"/>
+      <c r="G599" s="13"/>
+      <c r="H599" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -40728,7 +45178,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>56</v>
@@ -40740,7 +45190,7 @@
         <v>53</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41294,7 +45744,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>56</v>
@@ -41306,7 +45756,7 @@
         <v>57</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41857,10 +46307,10 @@
         <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>56</v>
@@ -41869,10 +46319,10 @@
         <v>54</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -42456,7 +46906,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>56</v>
@@ -42468,7 +46918,7 @@
         <v>53</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43022,7 +47472,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>56</v>
@@ -43034,7 +47484,7 @@
         <v>54</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43585,10 +48035,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>56</v>
@@ -43597,10 +48047,10 @@
         <v>57</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -44153,10 +48603,10 @@
         <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44474,60 +48924,60 @@
   </sheetPr>
   <dimension ref="A1:H325"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44537,68 +48987,88 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="23" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>132</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H325" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -44635,16 +49105,16 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>52</v>
@@ -44654,7 +49124,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="T1" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -44664,7 +49134,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24"/>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -44682,7 +49152,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>21</v>
@@ -44697,7 +49167,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>21</v>
@@ -44714,7 +49184,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">B131</f>
@@ -45079,22 +49549,22 @@
       <c r="A14" s="24"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24"/>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>71</v>
@@ -45114,7 +49584,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2" t="n">
         <f aca="false">ROUND($B131-$B133,0)</f>
@@ -45324,22 +49794,22 @@
       <c r="A27" s="24"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24"/>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>71</v>
@@ -45380,7 +49850,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B30" s="12" t="n">
         <f aca="false">(B29-$B$132)/($B$131-$B$132)</f>
@@ -45406,22 +49876,22 @@
       <c r="A31" s="24"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24"/>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>71</v>
@@ -45441,7 +49911,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="n">
         <f aca="false">ROUND($B131-2*$B133,0)</f>
@@ -45650,22 +50120,22 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26"/>
       <c r="B45" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>71</v>
@@ -45706,7 +50176,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B47" s="12" t="n">
         <f aca="false">(B46-$B$132)/($B$131-$B$132)</f>
@@ -45732,22 +50202,22 @@
       <c r="A48" s="26"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26"/>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>71</v>
@@ -45788,7 +50258,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B51" s="12" t="n">
         <f aca="false">(B50-$B$132)/($B$131-$B$132)</f>
@@ -45812,22 +50282,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="27"/>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>71</v>
@@ -45868,7 +50338,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="27" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B55" s="12" t="n">
         <f aca="false">(B54-$B$132)/($B$131-$B$132)</f>
@@ -45894,22 +50364,22 @@
       <c r="A56" s="27"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="27"/>
       <c r="B57" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>71</v>
@@ -45950,7 +50420,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="27" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B59" s="12" t="n">
         <f aca="false">(B58-$B$132)/($B$131-$B$132)</f>
@@ -45975,22 +50445,22 @@
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28"/>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>71</v>
@@ -46031,7 +50501,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B63" s="12" t="n">
         <f aca="false">(B62-$B$132)/($B$131-$B$132)</f>
@@ -46057,22 +50527,22 @@
       <c r="A64" s="28"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28"/>
       <c r="B65" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>71</v>
@@ -46092,7 +50562,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>284</v>
@@ -46301,22 +50771,22 @@
       <c r="A77" s="28"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28"/>
       <c r="B78" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>71</v>
@@ -46336,7 +50806,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B79" s="2" t="n">
         <f aca="false">ROUND($B131-3*$B133,0)</f>
@@ -46546,22 +51016,22 @@
       <c r="A90" s="28"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="28"/>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>71</v>
@@ -46602,7 +51072,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B93" s="12" t="n">
         <f aca="false">(B92-$B$132)/($B$131-$B$132)</f>
@@ -46630,22 +51100,22 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="30"/>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>71</v>
@@ -46686,7 +51156,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="30" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B98" s="12" t="n">
         <f aca="false">(B97-$B$132)/($B$131-$B$132)</f>
@@ -46712,22 +51182,22 @@
       <c r="A99" s="30"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="30"/>
       <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>71</v>
@@ -46791,7 +51261,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="30" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>100</v>
@@ -46813,22 +51283,22 @@
       <c r="A104" s="30"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="30"/>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>71</v>
@@ -46869,7 +51339,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="30" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B107" s="12" t="n">
         <f aca="false">(B106-$B$132)/($B$131-$B$132)</f>
@@ -46894,22 +51364,22 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="32"/>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>71</v>
@@ -46950,7 +51420,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="32" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B111" s="12" t="n">
         <f aca="false">(B110-$B$132)/($B$131-$B$132)</f>
@@ -46976,22 +51446,22 @@
       <c r="A112" s="32"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="32"/>
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>71</v>
@@ -47032,7 +51502,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="32" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B115" s="12" t="n">
         <f aca="false">(B114-$B$132)/($B$131-$B$132)</f>
@@ -47058,22 +51528,22 @@
       <c r="A116" s="32"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="32"/>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>71</v>
@@ -47093,7 +51563,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B118" s="2" t="n">
         <f aca="false">B132</f>
@@ -47301,12 +51771,12 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>588</v>
@@ -47314,7 +51784,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>153</v>
@@ -47322,7 +51792,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B133" s="0" t="n">
         <f aca="false">(B131-B132)/4</f>
@@ -47359,7 +51829,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -47374,10 +51844,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47413,7 +51883,7 @@
         <v>0.011038</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47506,17 +51976,17 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -47545,7 +52015,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -47555,10 +52025,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
